--- a/material.xlsx
+++ b/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\git_reposit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA28F68-D820-477C-8BFD-458DCE057085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D85B0E-4146-4929-86AB-049FEB22F8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C1E2A563-FA8D-499D-9C52-791F02CCA452}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Material </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,17 +109,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Battery set </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6V </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For MCU also Motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g or 500g can be alternative but the installation drill holes on the 3D print structure needs to be modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Heevhas-DRV8833-Module-Controller-Printer/dp/B0DQZGP1J4?pd_rd_w=6Q8ij&amp;content-id=amzn1.sym.0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_p=0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_r=P3FBBZ74S09VGHC4YHP6&amp;pd_rd_wg=E5okT&amp;pd_rd_r=dbbefb06-afcc-4989-98f0-b728e743f3e0&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_35_fod_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.amazon.de/Geekstory-Amplifier-Precision-Converter-Raspberry/dp/B0BVBBZG2V/ref=sr_1_5_sspa?dib=eyJ2IjoiMSJ9.SzffIJv5695DlM9b4mh102HCsz67ZyQ8i-Qbg73MSudr8CJr7B4CakMKxeIQhWCT-n_KlJyLE0PA5ydGMDy0k4ilDynSbTyBOf1mQJIBaXnO-IGg0WcqYJkgI5zMjIwSiX4gvhhimUkBdqowKOdLrCpMGdsmXKYGJzi4Y-8BG-e20vEAOMW5Wkg0mYsWxtXp3j8vz3c4XbmlCsnbc__XGWMYR2BKOL19st7Q8dDR2C0HUfQKnayQOsrHvBt9O_Yhgb3OcdbtqN0J9WH1qBL-_hSLr8abUZauGu5ojrL3VK4.7fp9yPlKmcp1y44_ZjPUs_QOaszX0bXXQBATK3drzjY&amp;dib_tag=se&amp;keywords=HX711&amp;qid=1754393023&amp;sr=8-5-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/-/en/Heevhas-DRV8833-Module-Controller-Printer/dp/B0DQZGP1J4?pd_rd_w=6Q8ij&amp;content-id=amzn1.sym.0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_p=0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_r=P3FBBZ74S09VGHC4YHP6&amp;pd_rd_wg=E5okT&amp;pd_rd_r=dbbefb06-afcc-4989-98f0-b728e743f3e0&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_35_fod_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +154,24 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -153,18 +193,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -498,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7F7577-CF01-4442-9914-777B195559D9}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +569,11 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -531,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -542,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -558,8 +611,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -569,11 +625,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -584,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -595,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -606,8 +662,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" display="https://www.amazon.de/-/en/Heevhas-DRV8833-Module-Controller-Printer/dp/B0DQZGP1J4?pd_rd_w=6Q8ij&amp;content-id=amzn1.sym.0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_p=0f73985c-a70f-4f1a-ac39-2476d6bccc08&amp;pf_rd_r=P3FBBZ74S09VGHC4YHP6&amp;pd_rd_wg=E5okT&amp;pd_rd_r=dbbefb06-afcc-4989-98f0-b728e743f3e0&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_35_fod_t" xr:uid="{A3D7B1D4-C6B2-438C-8DF2-A7C71353429A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>